--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,47 +8,28 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Automation" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Saqib</t>
-  </si>
-  <si>
-    <t>Saq@123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>Pendari</t>
-  </si>
-  <si>
-    <t>Pendari@123</t>
-  </si>
-  <si>
-    <t>Pendhara</t>
   </si>
   <si>
     <t>Pendhara@123</t>
   </si>
   <si>
-    <t>dkfl</t>
+    <t>Hello1</t>
   </si>
   <si>
-    <t>Hello</t>
+    <t>Selenium</t>
   </si>
   <si>
-    <t>Hello1</t>
+    <t>Cypress</t>
   </si>
 </sst>
 </file>
@@ -399,50 +380,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.44140625"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="5">
+      <c r="E5" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -456,25 +436,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>